--- a/elimination data.xlsx
+++ b/elimination data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="0" windowWidth="24380" windowHeight="17180" tabRatio="500"/>
+    <workbookView xWindow="4020" yWindow="0" windowWidth="24380" windowHeight="17180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="27">
   <si>
     <t>n=3 k=2</t>
   </si>
@@ -100,6 +100,9 @@
   <si>
     <t>Separate (n=3, k=3)</t>
   </si>
+  <si>
+    <t>iter 0</t>
+  </si>
 </sst>
 </file>
 
@@ -153,8 +156,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="159">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -318,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="159">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -398,6 +423,17 @@
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -477,6 +513,17 @@
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,54 +561,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>TOTAL!$L$7:$Q$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>TOTAL!$L$14:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TOTAL!$L$9:$Q$9</c:f>
+              <c:f>TOTAL!$L$16:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.316666666666667</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.683333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.683333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.683333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0208333333333333</c:v>
+                  <c:v>0.683333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0679166666666667</c:v>
+                  <c:v>0.6625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.594583333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,54 +632,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>TOTAL!$L$7:$Q$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>TOTAL!$L$14:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TOTAL!$L$10:$Q$10</c:f>
+              <c:f>TOTAL!$L$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.332916666666667</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0354166666666667</c:v>
+                  <c:v>0.667083333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.631666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.631666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.631666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0391666666666667</c:v>
+                  <c:v>0.631666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,54 +703,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>TOTAL!$L$7:$Q$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>TOTAL!$L$14:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TOTAL!$L$8:$Q$8</c:f>
+              <c:f>TOTAL!$L$15:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.325833333333333</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0220833333333333</c:v>
+                  <c:v>0.674166666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02625</c:v>
+                  <c:v>0.652083333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.625833333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.625833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0329166666666667</c:v>
+                  <c:v>0.625833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.592916666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,54 +774,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>TOTAL!$L$7:$Q$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>TOTAL!$L$14:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TOTAL!$L$11:$Q$11</c:f>
+              <c:f>TOTAL!$L$18:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.316666666666667</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.683333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0525</c:v>
+                  <c:v>0.683333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03125</c:v>
+                  <c:v>0.630833333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0470833333333333</c:v>
+                  <c:v>0.599583333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07</c:v>
+                  <c:v>0.5525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,13 +843,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139873768"/>
-        <c:axId val="2139807912"/>
+        <c:axId val="-2128667576"/>
+        <c:axId val="-2132920648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139873768"/>
+        <c:axId val="-2128667576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -794,18 +870,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139807912"/>
+        <c:crossAx val="-2132920648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139807912"/>
+        <c:axId val="-2132920648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,27 +903,25 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> models eliminated</a:t>
+                  <a:t> models remaining</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139873768"/>
+        <c:crossAx val="-2128667576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -892,54 +966,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>SEPARATE!$C$48:$H$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>SEPARATE!$C$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SEPARATE!$C$49:$H$49</c:f>
+              <c:f>SEPARATE!$C$55:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.249092849519744</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0849519743863394</c:v>
+                  <c:v>0.750907150480256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.152401280683031</c:v>
+                  <c:v>0.665955176093917</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0296691568836713</c:v>
+                  <c:v>0.513553895410886</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.483884738527214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.170757737459979</c:v>
+                  <c:v>0.483884738527214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.313127001067236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -956,54 +1037,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>SEPARATE!$C$48:$H$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>SEPARATE!$C$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SEPARATE!$C$50:$H$50</c:f>
+              <c:f>SEPARATE!$C$56:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.288153681963714</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.115901814300961</c:v>
+                  <c:v>0.711846318036286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.228815368196371</c:v>
+                  <c:v>0.595944503735325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0783351120597652</c:v>
+                  <c:v>0.367129135538954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.288794023479189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0.288794023479189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.288794023479189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,54 +1108,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>SEPARATE!$C$48:$H$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>SEPARATE!$C$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SEPARATE!$C$51:$H$51</c:f>
+              <c:f>SEPARATE!$C$57:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.288580576307364</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.188260405549626</c:v>
+                  <c:v>0.711419423692636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16307363927428</c:v>
+                  <c:v>0.52315901814301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0847385272145144</c:v>
+                  <c:v>0.36008537886873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.275346851654216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0213447171824973</c:v>
+                  <c:v>0.275346851654216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.254002134471718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,54 +1179,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>SEPARATE!$C$48:$H$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>SEPARATE!$C$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SEPARATE!$C$52:$H$52</c:f>
+              <c:f>SEPARATE!$C$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.369690501600854</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.266595517609392</c:v>
+                  <c:v>0.630309498399146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0531483457844183</c:v>
+                  <c:v>0.363713980789754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0215581643543223</c:v>
+                  <c:v>0.310565635005336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0779082177161153</c:v>
+                  <c:v>0.289007470651014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0.211099252934899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.211099252934899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,11 +1248,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130480296"/>
-        <c:axId val="2143038456"/>
+        <c:axId val="-2135353304"/>
+        <c:axId val="-2128797112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130480296"/>
+        <c:axId val="-2135353304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,15 +1277,16 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143038456"/>
+        <c:crossAx val="-2128797112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2143038456"/>
+        <c:axId val="-2128797112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1304,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percent models eliminated</a:t>
+                  <a:t>Percent models remaining</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1213,7 +1316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130480296"/>
+        <c:crossAx val="-2135353304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1265,54 +1368,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>SEPARATE!$M$48:$R$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>SEPARATE!$M$54:$S$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SEPARATE!$M$49:$R$49</c:f>
+              <c:f>SEPARATE!$M$56:$S$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.420490928495197</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.214514407684098</c:v>
+                  <c:v>0.537673425827108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0836712913553895</c:v>
+                  <c:v>0.427107790821772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0153681963713981</c:v>
+                  <c:v>0.302881536819637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0251867662753468</c:v>
+                  <c:v>0.296264674493063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00149413020277481</c:v>
+                  <c:v>0.265741728922092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.265741728922092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,54 +1439,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>SEPARATE!$M$48:$R$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>SEPARATE!$M$54:$S$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SEPARATE!$M$50:$R$50</c:f>
+              <c:f>SEPARATE!$M$56:$S$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.462326574172892</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.110565635005336</c:v>
+                  <c:v>0.537673425827108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.124226254002134</c:v>
+                  <c:v>0.427107790821772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00661686232657417</c:v>
+                  <c:v>0.302881536819637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0305229455709712</c:v>
+                  <c:v>0.296264674493063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0.265741728922092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.265741728922092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,54 +1510,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>SEPARATE!$M$48:$R$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>SEPARATE!$M$54:$S$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SEPARATE!$M$51:$R$51</c:f>
+              <c:f>SEPARATE!$M$57:$S$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.480469583778015</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.273212379935966</c:v>
+                  <c:v>0.519530416221985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0595517609391675</c:v>
+                  <c:v>0.246318036286019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.186766275346852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00362860192102455</c:v>
+                  <c:v>0.186766275346852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0392742796157951</c:v>
+                  <c:v>0.183137673425827</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.143863393810032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,54 +1581,61 @@
             <a:ln w="38100"/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>SEPARATE!$M$48:$R$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>SEPARATE!$M$54:$S$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>iter 1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iter 2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iter 3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iter 4</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iter 5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>iter 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SEPARATE!$M$52:$R$52</c:f>
+              <c:f>SEPARATE!$M$58:$S$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.472358591248666</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.232657417289221</c:v>
+                  <c:v>0.527641408751334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0591248665955176</c:v>
+                  <c:v>0.294983991462113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0337246531483458</c:v>
+                  <c:v>0.235859124866595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0364994663820704</c:v>
+                  <c:v>0.20213447171825</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0200640341515475</c:v>
+                  <c:v>0.165635005336179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.145570971184632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,11 +1650,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2147158072"/>
-        <c:axId val="2147096984"/>
+        <c:axId val="-2136338632"/>
+        <c:axId val="-2136595480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2147158072"/>
+        <c:axId val="-2136338632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,15 +1679,16 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147096984"/>
+        <c:crossAx val="-2136595480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2147096984"/>
+        <c:axId val="-2136595480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,7 +1710,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> models eliminated</a:t>
+                  <a:t> models remaining</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1591,7 +1723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147158072"/>
+        <c:crossAx val="-2136338632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1617,16 +1749,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1652,16 +1784,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1683,15 +1815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2035,15 +2167,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2051,12 +2183,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2085,7 +2217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2115,7 +2247,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="C5">
         <v>170</v>
       </c>
@@ -2139,7 +2271,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="C6">
         <v>156</v>
       </c>
@@ -2163,7 +2295,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="C7">
         <v>152</v>
       </c>
@@ -2190,25 +2322,28 @@
         <v>18</v>
       </c>
       <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>6</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="C8">
         <v>152</v>
       </c>
@@ -2234,26 +2369,26 @@
       <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.32583333333333336</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.2083333333333333E-2</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2.6249999999999999E-2</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>3.291666666666667E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -2288,12 +2423,9 @@
       <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.31666666666666665</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
@@ -2301,13 +2433,16 @@
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>6.7916666666666667E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -2342,15 +2477,12 @@
       <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.33291666666666669</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>3.5416666666666666E-2</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -2358,10 +2490,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>3.9166666666666669E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -2396,26 +2531,26 @@
       <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.31666666666666665</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>3.125E-2</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4.7083333333333338E-2</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -2448,7 +2583,7 @@
         <v>8.580450567682596E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2477,8 +2612,32 @@
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="C15">
         <v>152</v>
       </c>
@@ -2501,8 +2660,38 @@
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f>1-M8</f>
+        <v>0.67416666666666658</v>
+      </c>
+      <c r="N15">
+        <f>M15-N8</f>
+        <v>0.65208333333333324</v>
+      </c>
+      <c r="O15">
+        <f>N15-O8</f>
+        <v>0.62583333333333324</v>
+      </c>
+      <c r="P15">
+        <f>O15-P8</f>
+        <v>0.62583333333333324</v>
+      </c>
+      <c r="Q15">
+        <f>P15-Q8</f>
+        <v>0.62583333333333324</v>
+      </c>
+      <c r="R15">
+        <f>Q15-R8</f>
+        <v>0.59291666666666654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="C16">
         <v>152</v>
       </c>
@@ -2525,8 +2714,38 @@
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M18" si="5">1-M9</f>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:R18" si="6">M16-N9</f>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>0.59458333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="C17">
         <v>152</v>
       </c>
@@ -2549,8 +2768,38 @@
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0.66708333333333325</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0.6316666666666666</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>0.6316666666666666</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>0.6316666666666666</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>0.6316666666666666</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>0.59249999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="C18">
         <v>152</v>
       </c>
@@ -2573,8 +2822,38 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>0.63083333333333336</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>0.59958333333333336</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>0.48249999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -2583,31 +2862,31 @@
         <v>152</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:I19" si="5">AVERAGE(D14:D18)</f>
+        <f t="shared" ref="D19:I19" si="7">AVERAGE(D14:D18)</f>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32.6</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>194.6</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:18">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -2616,31 +2895,31 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:I20" si="6">STDEV(D14:D19)</f>
+        <f t="shared" ref="D20:I20" si="8">STDEV(D14:D19)</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40.829401171214847</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>37.617017425628099</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:18">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -2649,31 +2928,31 @@
         <v>0.31666666666666665</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:I21" si="7">D19/480</f>
+        <f t="shared" ref="D21:I21" si="9">D19/480</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="H21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.7916666666666667E-2</v>
       </c>
       <c r="I21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.40541666666666665</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:18">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -2682,31 +2961,31 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:I22" si="8">D20/480</f>
+        <f t="shared" ref="D22:I22" si="10">D20/480</f>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.5061252440030932E-2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.8368786303391877E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2736,7 +3015,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:18">
       <c r="C25">
         <v>152</v>
       </c>
@@ -2760,7 +3039,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:18">
       <c r="C26">
         <v>191</v>
       </c>
@@ -2784,7 +3063,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:18">
       <c r="C27">
         <v>152</v>
       </c>
@@ -2808,7 +3087,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:18">
       <c r="C28">
         <v>152</v>
       </c>
@@ -2832,7 +3111,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:18">
       <c r="B29" t="s">
         <v>11</v>
       </c>
@@ -2841,31 +3120,31 @@
         <v>159.80000000000001</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:I29" si="9">AVERAGE(D24:D28)</f>
+        <f t="shared" ref="D29:I29" si="11">AVERAGE(D24:D28)</f>
         <v>17</v>
       </c>
       <c r="E29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18.8</v>
       </c>
       <c r="I29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>195.6</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:18">
       <c r="B30" t="s">
         <v>12</v>
       </c>
@@ -2874,31 +3153,31 @@
         <v>17.441330224498358</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:I30" si="10">STDEV(D24:D28)</f>
+        <f t="shared" ref="D30:I30" si="12">STDEV(D24:D28)</f>
         <v>38.013155617496423</v>
       </c>
       <c r="E30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42.03807797699605</v>
       </c>
       <c r="I30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>62.066899390899195</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:18">
       <c r="B31" t="s">
         <v>13</v>
       </c>
@@ -2907,31 +3186,31 @@
         <v>0.33291666666666669</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:I31" si="11">D29/480</f>
+        <f t="shared" ref="D31:I31" si="13">D29/480</f>
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.9166666666666669E-2</v>
       </c>
       <c r="I31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.40749999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:18">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -2940,27 +3219,27 @@
         <v>3.6336104634371577E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:I32" si="12">D30/480</f>
+        <f t="shared" ref="D32:I32" si="14">D30/480</f>
         <v>7.9194074203117554E-2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.7579329118741764E-2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.12930604039770666</v>
       </c>
     </row>
@@ -3099,27 +3378,27 @@
         <v>152</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:I39" si="13">AVERAGE(D34:D38)</f>
+        <f t="shared" ref="D39:I39" si="15">AVERAGE(D34:D38)</f>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>25.2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="G39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22.6</v>
       </c>
       <c r="H39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33.6</v>
       </c>
       <c r="I39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>248.4</v>
       </c>
     </row>
@@ -3132,27 +3411,27 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:I40" si="14">STDEV(D34:D38)</f>
+        <f t="shared" ref="D40:I40" si="16">STDEV(D34:D38)</f>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>56.348913032994702</v>
       </c>
       <c r="F40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>33.541019662496844</v>
       </c>
       <c r="G40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50.535136291495249</v>
       </c>
       <c r="H40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>51.271824621325891</v>
       </c>
       <c r="I40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>65.324574242776379</v>
       </c>
     </row>
@@ -3165,27 +3444,27 @@
         <v>0.31666666666666665</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41:I41" si="15">D39/480</f>
+        <f t="shared" ref="D41:I41" si="17">D39/480</f>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.125E-2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.7083333333333338E-2</v>
       </c>
       <c r="H41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.51749999999999996</v>
       </c>
     </row>
@@ -3198,27 +3477,27 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:I42" si="16">D40/480</f>
+        <f t="shared" ref="D42:I42" si="18">D40/480</f>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.11739356881873896</v>
       </c>
       <c r="F42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.9877124296868418E-2</v>
       </c>
       <c r="G42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.1052815339406151</v>
       </c>
       <c r="H42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.10681630129442894</v>
       </c>
       <c r="I42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.13609286300578413</v>
       </c>
     </row>
@@ -3236,10 +3515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4453,7 +4732,7 @@
         <v>8</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S35" si="18">SUM(M26:R26)</f>
+        <f t="shared" ref="S26:S28" si="18">SUM(M26:R26)</f>
         <v>814</v>
       </c>
     </row>
@@ -5347,7 +5626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:19">
       <c r="B49" t="s">
         <v>19</v>
       </c>
@@ -5391,7 +5670,7 @@
         <v>1.4941302027748132E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:19">
       <c r="B50" t="s">
         <v>20</v>
       </c>
@@ -5435,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:19">
       <c r="B51" t="s">
         <v>21</v>
       </c>
@@ -5479,7 +5758,7 @@
         <v>3.9274279615795091E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:19">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -5521,6 +5800,304 @@
       </c>
       <c r="R52">
         <v>2.0064034151547491E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19">
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+      <c r="L54" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>4</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19">
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <f>1-C49</f>
+        <v>0.75090715048025614</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55:I58" si="35">D55-D49</f>
+        <v>0.66595517609391675</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="35"/>
+        <v>0.51355389541088581</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="35"/>
+        <v>0.48388473852721453</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="35"/>
+        <v>0.48388473852721453</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="35"/>
+        <v>0.3131270010672359</v>
+      </c>
+      <c r="L55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <f t="shared" ref="N55:S55" si="36">M55-M49</f>
+        <v>0.57950907150480258</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="36"/>
+        <v>0.36499466382070439</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="36"/>
+        <v>0.28132337246531486</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="36"/>
+        <v>0.26595517609391678</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="36"/>
+        <v>0.24076840981856992</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="36"/>
+        <v>0.23927427961579512</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19">
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <f>1-C50</f>
+        <v>0.71184631803628595</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="35"/>
+        <v>0.59594450373532548</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="35"/>
+        <v>0.3671291355389541</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="35"/>
+        <v>0.28879402347918887</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="35"/>
+        <v>0.28879402347918887</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="35"/>
+        <v>0.28879402347918887</v>
+      </c>
+      <c r="L56" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56:S58" si="37">M56-M50</f>
+        <v>0.53767342582710786</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="37"/>
+        <v>0.42710779082177169</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="37"/>
+        <v>0.3028815368196372</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="37"/>
+        <v>0.29626467449306304</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="37"/>
+        <v>0.26574172892209186</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="37"/>
+        <v>0.26574172892209186</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19">
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <f>1-C51</f>
+        <v>0.71141942369263611</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="35"/>
+        <v>0.52315901814300969</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="35"/>
+        <v>0.36008537886873004</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="35"/>
+        <v>0.27534685165421563</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="35"/>
+        <v>0.27534685165421563</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="35"/>
+        <v>0.25400213447171832</v>
+      </c>
+      <c r="L57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="37"/>
+        <v>0.51953041622198515</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="37"/>
+        <v>0.24631803628601928</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="37"/>
+        <v>0.18676627534685172</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="37"/>
+        <v>0.18676627534685172</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="37"/>
+        <v>0.18313767342582718</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="37"/>
+        <v>0.1438633938100321</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19">
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <f>1-C52</f>
+        <v>0.63030949839914618</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="35"/>
+        <v>0.36371398078975448</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="35"/>
+        <v>0.31056563500533613</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="35"/>
+        <v>0.28900747065101384</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="35"/>
+        <v>0.21109925293489856</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="35"/>
+        <v>0.21109925293489856</v>
+      </c>
+      <c r="L58" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="37"/>
+        <v>0.52764140875133403</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="37"/>
+        <v>0.29498399146211307</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="37"/>
+        <v>0.23585912486659547</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="37"/>
+        <v>0.20213447171824966</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="37"/>
+        <v>0.16563500533617923</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="37"/>
+        <v>0.14557097118463175</v>
       </c>
     </row>
   </sheetData>
